--- a/Testdata/TC_132.xlsx
+++ b/Testdata/TC_132.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RwAAB+LCAAAAAAAAAOlWVtvG8cV/isLPrUP5C5JORaF0Qa8SCpRUhREKrLyUix3R+JUyx12Z1YS3xIkRYy0Bgo0cdA2adECRYsCTQI0DZq4hf9LYMruU/9Cz1z2RlI21zEEa+fc5syZM+d8M0Jv3kx94wqHjNBgt1StWCUDBy71SHCxW4r4ebn6RulNG+3duNg/ckJnijkIG6AVsJ0bRnZLE85nO6Z5fX1dua5XaHhh1iyraj7o94buBE+dMgkYdwIXlxIt79VaJRu1vWkfc8dzuKM0d0vdYbfSxsTtAK3vBM4FDiutiJEAM7YXcMIJZkIzxA7H7U7/LbUwu1Z5o1JF5go9lWxFxPeUXE5S0bUcTItHZIrtmlXdLluNslUfWY2dre0dq16xthpvx4qJIOo5jA9xeEVcSRhyZzqT6lbDqluNrW2rjsy1QmArDYCNBr53jK8Iw14b+z4rFBFTb2DT5bDqYsG0kJnR1YZe34WD0JlNRoT7uJgbxyctYxxoX1IjNtqnIXYhfq/l0iG+HoQ6rKNZD7ijCQn5vOPMC9s6YTgczESQiqnaqEMD3vRxyE9msNfYg1QAhs3DCCPzDmaq1CHMhW8SRNizzx2fZZVyTHRKw0s2c1x8COfYFDauA586HiQcJ4wTN510hYGOQjoDizB5i/rePljVwmsYieVuACEW07YovUy9W8dEclfl/sKeTh0ei6/Q0XBCrweBPx9GY+aGZIy9TiuWXstD4kBq7XbEOJ2CFykJKVqG0u+bc/gHZ3CZgzrYJVPHP/IhjsyG05snoGbE6TnhbepH04DFbi1R0SksaoRvkkUmYzSA/Q1E3GnQDWJ5Fem1rLzCMb1O5lxlyDhkyE3mxju+ylgW7gAt3sFVjtwUscp94kOLyG5HhppPjOEEY742KxQHiWq4L5qO3ZofRtMxnLAxHLMrOStDZspHkKqQ7uCXbUEjKcufkWXtyB/wI2GjvcC7Wy5mIpguM5ddBd4SCcGa/JbvBJdAPSV8ctiM17KGg1QE7pRf5SE4vDPfmUtyEqUsDXUD1488rGpCNziXKSp8U5t6JxutkHpwzG3kBPPRfAalmZEdDh+7JWjWO4yHAAdKtkujgIdzUTyQqUVfpcOicSAncPyNdc5D/LMIUMh8PwrcNvU2n81T0TkJCN/cQxqFqiJuriKjJ4pjxDpYlBlZ9zfWd4usiYWFxKcBntKAuJtHG4IsvPdeYyEsPlUba2B1vjaW96G1q84nzvrGaiFASOh1haZpMkZdIpNVHw8vo2/ecWQ6+NyJfIBvHLrsRVJ7l8moyS6XZbIkdBL6cQW0BThmgI5db1pxAT8IBFhx6VQQTAClp0NkZuUFCHLxXnDRc4KLCGBGUleW6Un9FS1yFDoBE8tJUMVSKV4vhOI6pdCOrYrXIJKJoIoXBS4yl+TQCE9nNHT8PgSG7Ou005AJ0Ejf4RM9gt7mYzcOspmqJlp5z2LHXyUmm5RahjjwukwuEaWQWIvC4alMSkNilX04ln7b8ck4VFU1buXreLBhKT6M669YXEGsGO8B3MWg+/4YzwVATweaLlO2GjNUAotCag+Pt7ZrW41tUJJjJFfcBp+oTyS+NA4oXAeDKegZgIwxIMcdY87hKKjg6AZUQC+rgfbj2i6n70OK5gh5PkCMCwKdY0UuYaTydh+A58SfZyTV6nrUBcHFrx4uvvn69qOni28/vf3o68XP//y/f/928c1Xi4efvfjgH8+efKjWp4TRyBn7WDo0am3DFW0LUishIRFPUwJiL3K5pJ2dSRycjJG+zslBe6/bPui1ZAlJiLG66iKmuCnOaZQOh2oRciK5i2a8+UrEHsUlSY9z3ExXssXN7QrnpbP8uxRVLJ4/+cvzJ3+/U1sHLIVX1Uajvgn6gjvwVtmq3YG+ermyr4XvlWu1jPCSDDpWNT+JU9ez61WrUd2+b1WT8u0lGbxOaJmlLY2cC3NJT5HaChElKZAdx0yZ9yPMeMJWJyEzUEG8/ecvXnzxcU5KR1dT8lbAOYlcxGRmPJCmD49HxnBwctzeM0Z7Q5EnKS8jp4y/RFjPnpynbNKsnrZcSq2jKnMvVVye8SCk0WylUqTUNZJra8Yqd0lTxmbVtZS3Rl7v2qcP1ynolXRSQJo8YWRpKMdRpAxf165H7z779umzp+8//88nt4+/WDz60+Jf7+Xs6NmS+z2kLhyQ7DDJZKhiumssUdDpUMb00vpJpktoorgOHVEScGbX7m3Jq5AeItCtCnPyN+pOoXNJyzJsQF+ioB85bO+G68NqHyIzTwBHZw40TZpeIROCqstpeP/72e9vf/fV7eMvX3zwt8WHf1388vHzJ3948fkf1Um6/fjL20ef68q9XNylL+JiqrCcIV86XEOcMEO0YOO7d35tBJQbgByMSFaZ7975TcaYcFRijNQyILPEkbwLK6JZZaFnZFxJfMjpJSqqj7dFW6onErox0Rlx00neLgtTAC8NyfhBd1SOGDYogKIfwkrywqnypnpaRbXJo/tWrVrTXOWNWMLYYZnQH/h07PhGzJDvCEsiOa2XK6Sycr6D3qDV7KUiyolB6OFQpKH6QDEyFG2iy+JRnGoZCnABv7mRL55+VsRWWYnlTDkz9RvKedMTD+rrXxxyEqgdhaFCOYF+lR9GM8C08WPb3Xz5AJmBsYcKcmaBbTrudvJ8GGe40NzybEGQfFmhNEtVqy4TzzUKlR6K0KRD4OUeLSEc+uFdoacrAltiisKzF4Y0XFt9Uk4s1gdADBXFTCOeyMg9VeDZS/cqJsQVL/lQFzi9QtrBPubFXqXNVLsP6Pd1dWHvi6p22cD3dDCL3SCSsKQGsk/zIlG+78u8SrZmGAJYEu94hZ/S4/vnMVxbC3qjliIVxUUOZtdv3fskZPyBqAT6S1HOEsqZQp0PxL1JfcjxmV2/pwggYGatmzk346PL1R9IqN8jU1LwdmfF5ztvBGI5mylY1i2WKaK1HOIbAI0ZC1AUxz+FtqGeQ4pYUwkLtTTRF0+QjFxMeFHH7o8d7OGxVXbHuFbe8qztcgPjerlahf8dt1azrHviAVMbh8pB8HXBScx4w9I/XNr/B6sjg37xHAAA</t>
+          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/itWnuDB7nY7mVxU6VVsJ8HCjqPYIZN9QeXuclyk3W26qpP4bRGgHS2MhMTuIGAXBBICIbG7EsuK3QHNf1lNMsMTf4FTl77amXGHUaTpOrc6derUOV+V0Ts3U69yRUJGA393rV4z1yrEdwKX+he7axEfV+uP1t6x0f6NQ7xjHOIp4SBcAS2f7dwwurs24Xy2YxjX19e160YtCC8MyzTrxuNed+BMyBRXqc849h2ylmi5b9das1HLnfYIxy7mWGnurnUGnVqLUKcNtB728QUJa82IUZ8wtu9zyilhQjMkmJNWu/c9tTDbqj2q1ZGxQE8lmxH1XCWXk1R0LQfTkiGdEtsyLbNqblUtc1g3d8yNnQ2rVt+23o0VE0HUxYwPSHhFHUkYcDydSXVzyzLrprmxYSFjqRDYSgNgo77nnpAryojbIp7HSkXE0Bu453BYdblgmsjI6GpDD3fhMMSzyZByj5RVPwhC4kCgHjT3Ebnuhzp+w1kXuMMJDfm8jeelbZ0yEvZnIhrlVG3UDny+55GQn85gU4kLew4Mm4cRQcY9zFSpTZkD39SPiGuPsceySjkmOgvCSzbDDjmCA2sIG9e+F2AXMotTxqmTTrrAQMdhMAOLMHkz8NwDsKqFlzASyx0fQiymbQbBZerdMiaSOSCzAfZ0inksvkBHg0lw3fe9+SAaMSekI+K2m7H0Uh4SJ09rtyLGgyl4kZKQomUovZ4xh39w2Ioc1CYOnWLv2IM4MrsBhnIEtBfxYEx5K/Ciqc9itwpUdAaLGpKbZJHJGPVhf30R98Dv+LG8ivRSVl7hJLhO5lxkyDhkyHvMiXd8kVEUbgMt3sFFjtwUscoD6kEvyG5HhppPjMGEEL40KxQHibJ3ILqL3ZwfRdMRnLARHLMrOStDRspHkKqQ7uCXbULHqMq/oQlVWPyBHwkb7fvu/XIxE8F0mbnsOvAKJARr8poe9i+Bekb55GgvXssSDlIRuFd+kYfg8M48PJfkJEpZGur4jhe5RNWEjj+WKSp8U5t6LxstkLpwzG2E/flwPoMazOgOh4/dNejKO4yH0PfXbCeIfB7ORfFAhhZ9mw6LRr6cAHsr64xD8sMI4Mb8IPKdVuCuPpuronPqU766h0EUqoq4uoqMniiOEWsTUWZk3V9Z3ymzJhaWEp/6ZBr41Fk92hBk4b37gIWw+FStrEHU+VpZ3oPWrjqfOOsrq4WAFaHXlZpmj7HAoTJZ9fFwM/rGPUemTcY48gCnceiyF0ntLZLRHrssymRJ6DT04gpoCxTMAAY77rTmAH4QUK/mBFNBMAB9ng2QkZUXIMgh+/5FF/sXEcCMpK4U6Un9FS1yGGKfieUkqKJQipcLobhOKbRjq+LVj2QiqOIVABcZBTk0JNNZEGKvB4GhBzrtNGQCNNLDfKJH0Ns84sRBNlLVRCvvWez428Rkk1LLEAdel8kCUQqJtSjAncqkNCRW2YNj6bWwR0ehqqpxK1/Ggw1L8WFcf8XiSmLFeA/g0gXd97tkLpB4OtB0mbL1mKESWBRSe3CyvmWtb2+BkhwjueIW+BR4VOLLymEA9z5/CnoVQMYEkONOZc7hKKjg6AZUQi+rgQ7i2i6n70GK5gh5PkCMCwqdY0EuYaTydg+A58SbZyTV6rqBA4K3v3hy+9WXdx++uP3647sPv7z96Z/++6/f3H71xe2TT16///eXzz9Q61PCaIhHHpEODZtbW2ZjHVIrISERT0MCYjdyuKSdn0scnIyRvrfJQWu/0zrsNmUJSYixuuoihrgSzoMoHQ7UIuREcheNePOViD2MS5Ie57iZrmSLK9oVyUtn+fcpqli8ev7nV8//dq+2DlgKr+rb241V0Bdcc9erpnUP+urmyr4W3qhaVka4IINOVM1P4tRx7Ubd3K5vbZr1pHy7SQYvEyqytKUhvjAKeorUUogoSYHsOGbKvB8SxhO2OgmZgQri3T9+9vqzj3JSOrqakrcCzknkIiYz4oE0fXQyrAz6pyet/cpwfyDyJOVl5JTxNwjr2ZPzlE2axdOWS6llVGXujYrFGQ/DIJotVIqUukRyac1Y5BY0ZWwWXUt5S+T1rn38ZJmCXkk7BaT2yWmzMvKTJJM0lOMoUoava9fTH738+sXLFz959e9f3T377PbpH2//+eOcHT1bcr+H1IUDkh0mmQxVTHeNAgWdDWRML83vZ7qEJorr0HFAfc5sa2NdXoX0EIFuXZiT/6POFDqXtCzDBvQCBX0Hs/0brg+rfYSMPAEcnWFomkF6hUwIqi6n4f3PJ7+7++0Xd88+f/3+X28/+Mvtz5+9ev7715/+QZ2ku48+v3v6qa7cxeIufREXU4XlKvKlw6mIE1YRLbjyzXu/rPgBrwByqESyynzz3q8zxoSjEmOklgGZJY7kXVgQzSoLvUrGlcSHnF6iovp4S7SlRiKhG1Mwo046ybtVYQrgZUUyvtUZViNGKgGAom/DSvLCqfKqelpFtcnjTdOqW5qrvBFLGGGWCf2hF4ywV4kZ8h2hIJLTerNCKivnO+z2m3vdVEQ50Q9dEoo0VB+ow2JsGKdXhgJcwGxO5InnngWxRRaKvzIlzNDvJuM9V7yWL39lyEmgVhSGCtn4+sl9EM0Ax8YPbPfz5aNjBroeKZiZBbPpuNPO82Gc4UJDy7MFQfJlVdIsVaE6TDzRKCR6JEKTDoGXe6iEcOhXdYWYrihsgyGKzX4YBuHSipNyYrEegGCoIkYa8UTGEFMqwOymexUT4iqXfKhLm15h0CYe4aWfnGPtHiDeh+rC3pdV7bC+5+pglrs1JGFJDWTf3UWilHVmLwwBColXutIP5V3qX3bKrd42cWN9VHfqG9jaGuNNvD0i2GqQxiZ265smrE0ZFZdIYULcQsQVrNwkAADz6ul1+QQu0CWtqQBLRXGlhEjJA6kLezJGBzRk/LEoUfpLUc4TyrmCw4+Ff+pDjs/txoYigICRnczIeR3XF65+ogm8Lp3SktdOMy5CeSOQBrOZwotlNxR63hG5ATSbsQDVevQD6GfqnaaMNXWqoMgn+rGtQTQqbc6IlY+BLxLrYdr7LgCzh2vLHzyo9384IJHXQ010fEYvJrzsvlpw/SOPiFW1xo5TXYdBFbrxqOri8XbdNMcNV/yymRiH7kDJdclJRE+hLMJeeT2j8Iu1/T/oBjsR6h4AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796309</v>
+        <v>-0.3785388757796306</v>
       </c>
     </row>
     <row r="21">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Consolidated Government Revenue: ytd</Name>
+          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
+          <SeriesId>310918701</SeriesId>
+          <Code>SR4824980</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6CC4E1C-C672-4787-BD28-D165D1FAA360}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_132.xlsx
+++ b/Testdata/TC_132.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/itWnuDB7nY7mVxU6VVsJ8HCjqPYIZN9QeXuclyk3W26qpP4bRGgHS2MhMTuIGAXBBICIbG7EsuK3QHNf1lNMsMTf4FTl77amXGHUaTpOrc6derUOV+V0Ts3U69yRUJGA393rV4z1yrEdwKX+he7axEfV+uP1t6x0f6NQ7xjHOIp4SBcAS2f7dwwurs24Xy2YxjX19e160YtCC8MyzTrxuNed+BMyBRXqc849h2ylmi5b9das1HLnfYIxy7mWGnurnUGnVqLUKcNtB728QUJa82IUZ8wtu9zyilhQjMkmJNWu/c9tTDbqj2q1ZGxQE8lmxH1XCWXk1R0LQfTkiGdEtsyLbNqblUtc1g3d8yNnQ2rVt+23o0VE0HUxYwPSHhFHUkYcDydSXVzyzLrprmxYSFjqRDYSgNgo77nnpAryojbIp7HSkXE0Bu453BYdblgmsjI6GpDD3fhMMSzyZByj5RVPwhC4kCgHjT3Ebnuhzp+w1kXuMMJDfm8jeelbZ0yEvZnIhrlVG3UDny+55GQn85gU4kLew4Mm4cRQcY9zFSpTZkD39SPiGuPsceySjkmOgvCSzbDDjmCA2sIG9e+F2AXMotTxqmTTrrAQMdhMAOLMHkz8NwDsKqFlzASyx0fQiymbQbBZerdMiaSOSCzAfZ0inksvkBHg0lw3fe9+SAaMSekI+K2m7H0Uh4SJ09rtyLGgyl4kZKQomUovZ4xh39w2Ioc1CYOnWLv2IM4MrsBhnIEtBfxYEx5K/Ciqc9itwpUdAaLGpKbZJHJGPVhf30R98Dv+LG8ivRSVl7hJLhO5lxkyDhkyHvMiXd8kVEUbgMt3sFFjtwUscoD6kEvyG5HhppPjMGEEL40KxQHibJ3ILqL3ZwfRdMRnLARHLMrOStDRspHkKqQ7uCXbULHqMq/oQlVWPyBHwkb7fvu/XIxE8F0mbnsOvAKJARr8poe9i+Bekb55GgvXssSDlIRuFd+kYfg8M48PJfkJEpZGur4jhe5RNWEjj+WKSp8U5t6LxstkLpwzG2E/flwPoMazOgOh4/dNejKO4yH0PfXbCeIfB7ORfFAhhZ9mw6LRr6cAHsr64xD8sMI4Mb8IPKdVuCuPpuronPqU766h0EUqoq4uoqMniiOEWsTUWZk3V9Z3ymzJhaWEp/6ZBr41Fk92hBk4b37gIWw+FStrEHU+VpZ3oPWrjqfOOsrq4WAFaHXlZpmj7HAoTJZ9fFwM/rGPUemTcY48gCnceiyF0ntLZLRHrssymRJ6DT04gpoCxTMAAY77rTmAH4QUK/mBFNBMAB9ng2QkZUXIMgh+/5FF/sXEcCMpK4U6Un9FS1yGGKfieUkqKJQipcLobhOKbRjq+LVj2QiqOIVABcZBTk0JNNZEGKvB4GhBzrtNGQCNNLDfKJH0Ns84sRBNlLVRCvvWez428Rkk1LLEAdel8kCUQqJtSjAncqkNCRW2YNj6bWwR0ehqqpxK1/Ggw1L8WFcf8XiSmLFeA/g0gXd97tkLpB4OtB0mbL1mKESWBRSe3CyvmWtb2+BkhwjueIW+BR4VOLLymEA9z5/CnoVQMYEkONOZc7hKKjg6AZUQi+rgQ7i2i6n70GK5gh5PkCMCwqdY0EuYaTydg+A58SbZyTV6rqBA4K3v3hy+9WXdx++uP3647sPv7z96Z/++6/f3H71xe2TT16///eXzz9Q61PCaIhHHpEODZtbW2ZjHVIrISERT0MCYjdyuKSdn0scnIyRvrfJQWu/0zrsNmUJSYixuuoihrgSzoMoHQ7UIuREcheNePOViD2MS5Ie57iZrmSLK9oVyUtn+fcpqli8ev7nV8//dq+2DlgKr+rb241V0Bdcc9erpnUP+urmyr4W3qhaVka4IINOVM1P4tRx7Ubd3K5vbZr1pHy7SQYvEyqytKUhvjAKeorUUogoSYHsOGbKvB8SxhO2OgmZgQri3T9+9vqzj3JSOrqakrcCzknkIiYz4oE0fXQyrAz6pyet/cpwfyDyJOVl5JTxNwjr2ZPzlE2axdOWS6llVGXujYrFGQ/DIJotVIqUukRyac1Y5BY0ZWwWXUt5S+T1rn38ZJmCXkk7BaT2yWmzMvKTJJM0lOMoUoava9fTH738+sXLFz959e9f3T377PbpH2//+eOcHT1bcr+H1IUDkh0mmQxVTHeNAgWdDWRML83vZ7qEJorr0HFAfc5sa2NdXoX0EIFuXZiT/6POFDqXtCzDBvQCBX0Hs/0brg+rfYSMPAEcnWFomkF6hUwIqi6n4f3PJ7+7++0Xd88+f/3+X28/+Mvtz5+9ev7715/+QZ2ku48+v3v6qa7cxeIufREXU4XlKvKlw6mIE1YRLbjyzXu/rPgBrwByqESyynzz3q8zxoSjEmOklgGZJY7kXVgQzSoLvUrGlcSHnF6iovp4S7SlRiKhG1Mwo046ybtVYQrgZUUyvtUZViNGKgGAom/DSvLCqfKqelpFtcnjTdOqW5qrvBFLGGGWCf2hF4ywV4kZ8h2hIJLTerNCKivnO+z2m3vdVEQ50Q9dEoo0VB+ow2JsGKdXhgJcwGxO5InnngWxRRaKvzIlzNDvJuM9V7yWL39lyEmgVhSGCtn4+sl9EM0Ax8YPbPfz5aNjBroeKZiZBbPpuNPO82Gc4UJDy7MFQfJlVdIsVaE6TDzRKCR6JEKTDoGXe6iEcOhXdYWYrihsgyGKzX4YBuHSipNyYrEegGCoIkYa8UTGEFMqwOymexUT4iqXfKhLm15h0CYe4aWfnGPtHiDeh+rC3pdV7bC+5+pglrs1JGFJDWTf3UWilHVmLwwBColXutIP5V3qX3bKrd42cWN9VHfqG9jaGuNNvD0i2GqQxiZ265smrE0ZFZdIYULcQsQVrNwkAADz6ul1+QQu0CWtqQBLRXGlhEjJA6kLezJGBzRk/LEoUfpLUc4TyrmCw4+Ff+pDjs/txoYigICRnczIeR3XF65+ogm8Lp3SktdOMy5CeSOQBrOZwotlNxR63hG5ATSbsQDVevQD6GfqnaaMNXWqoMgn+rGtQTQqbc6IlY+BLxLrYdr7LgCzh2vLHzyo9384IJHXQ010fEYvJrzsvlpw/SOPiFW1xo5TXYdBFbrxqOri8XbdNMcNV/yymRiH7kDJdclJRE+hLMJeeT2j8Iu1/T/oBjsR6h4AAA==</t>
+          <t>8RwAAB+LCAAAAAAAAAOlWVtvG8cV/isLPrUP5C5JORaF0Qa8SCpRUhREKrLyUix3R+JUyx12Z1YS3xIkRYy0Bgo0cdA2adECRYsCTQI0DZq4hf9LYMruU/9Cz1z2RlI21zEEa+fc5syZM+d8M0Jv3kx94wqHjNBgt1StWCUDBy71SHCxW4r4ebn6RulNG+3duNg/ckJnijkIG6AVsJ0bRnZLE85nO6Z5fX1dua5XaHhh1iyraj7o94buBE+dMgkYdwIXlxIt79VaJRu1vWkfc8dzuKM0d0vdYbfSxsTtAK3vBM4FDiutiJEAM7YXcMIJZkIzxA7H7U7/LbUwu1Z5o1JF5go9lWxFxPeUXE5S0bUcTItHZIrtmlXdLluNslUfWY2dre0dq16xthpvx4qJIOo5jA9xeEVcSRhyZzqT6lbDqluNrW2rjsy1QmArDYCNBr53jK8Iw14b+z4rFBFTb2DT5bDqYsG0kJnR1YZe34WD0JlNRoT7uJgbxyctYxxoX1IjNtqnIXYhfq/l0iG+HoQ6rKNZD7ijCQn5vOPMC9s6YTgczESQiqnaqEMD3vRxyE9msNfYg1QAhs3DCCPzDmaq1CHMhW8SRNizzx2fZZVyTHRKw0s2c1x8COfYFDauA586HiQcJ4wTN510hYGOQjoDizB5i/rePljVwmsYieVuACEW07YovUy9W8dEclfl/sKeTh0ei6/Q0XBCrweBPx9GY+aGZIy9TiuWXstD4kBq7XbEOJ2CFykJKVqG0u+bc/gHZ3CZgzrYJVPHP/IhjsyG05snoGbE6TnhbepH04DFbi1R0SksaoRvkkUmYzSA/Q1E3GnQDWJ5Fem1rLzCMb1O5lxlyDhkyE3mxju+ylgW7gAt3sFVjtwUscp94kOLyG5HhppPjOEEY742KxQHiWq4L5qO3ZofRtMxnLAxHLMrOStDZspHkKqQ7uCXbUEjKcufkWXtyB/wI2GjvcC7Wy5mIpguM5ddBd4SCcGa/JbvBJdAPSV8ctiM17KGg1QE7pRf5SE4vDPfmUtyEqUsDXUD1488rGpCNziXKSp8U5t6JxutkHpwzG3kBPPRfAalmZEdDh+7JWjWO4yHAAdKtkujgIdzUTyQqUVfpcOicSAncPyNdc5D/LMIUMh8PwrcNvU2n81T0TkJCN/cQxqFqiJuriKjJ4pjxDpYlBlZ9zfWd4usiYWFxKcBntKAuJtHG4IsvPdeYyEsPlUba2B1vjaW96G1q84nzvrGaiFASOh1haZpMkZdIpNVHw8vo2/ecWQ6+NyJfIBvHLrsRVJ7l8moyS6XZbIkdBL6cQW0BThmgI5db1pxAT8IBFhx6VQQTAClp0NkZuUFCHLxXnDRc4KLCGBGUleW6Un9FS1yFDoBE8tJUMVSKV4vhOI6pdCOrYrXIJKJoIoXBS4yl+TQCE9nNHT8PgSG7Ou005AJ0Ejf4RM9gt7mYzcOspmqJlp5z2LHXyUmm5RahjjwukwuEaWQWIvC4alMSkNilX04ln7b8ck4VFU1buXreLBhKT6M669YXEGsGO8B3MWg+/4YzwVATweaLlO2GjNUAotCag+Pt7ZrW41tUJJjJFfcBp+oTyS+NA4oXAeDKegZgIwxIMcdY87hKKjg6AZUQC+rgfbj2i6n70OK5gh5PkCMCwKdY0UuYaTydh+A58SfZyTV6nrUBcHFrx4uvvn69qOni28/vf3o68XP//y/f/928c1Xi4efvfjgH8+efKjWp4TRyBn7WDo0am3DFW0LUishIRFPUwJiL3K5pJ2dSRycjJG+zslBe6/bPui1ZAlJiLG66iKmuCnOaZQOh2oRciK5i2a8+UrEHsUlSY9z3ExXssXN7QrnpbP8uxRVLJ4/+cvzJ3+/U1sHLIVX1Uajvgn6gjvwVtmq3YG+ermyr4XvlWu1jPCSDDpWNT+JU9ez61WrUd2+b1WT8u0lGbxOaJmlLY2cC3NJT5HaChElKZAdx0yZ9yPMeMJWJyEzUEG8/ecvXnzxcU5KR1dT8lbAOYlcxGRmPJCmD49HxnBwctzeM0Z7Q5EnKS8jp4y/RFjPnpynbNKsnrZcSq2jKnMvVVye8SCk0WylUqTUNZJra8Yqd0lTxmbVtZS3Rl7v2qcP1ynolXRSQJo8YWRpKMdRpAxf165H7z779umzp+8//88nt4+/WDz60+Jf7+Xs6NmS+z2kLhyQ7DDJZKhiumssUdDpUMb00vpJpktoorgOHVEScGbX7m3Jq5AeItCtCnPyN+pOoXNJyzJsQF+ioB85bO+G68NqHyIzTwBHZw40TZpeIROCqstpeP/72e9vf/fV7eMvX3zwt8WHf1388vHzJ3948fkf1Um6/fjL20ef68q9XNylL+JiqrCcIV86XEOcMEO0YOO7d35tBJQbgByMSFaZ7975TcaYcFRijNQyILPEkbwLK6JZZaFnZFxJfMjpJSqqj7dFW6onErox0Rlx00neLgtTAC8NyfhBd1SOGDYogKIfwkrywqnypnpaRbXJo/tWrVrTXOWNWMLYYZnQH/h07PhGzJDvCEsiOa2XK6Sycr6D3qDV7KUiyolB6OFQpKH6QDEyFG2iy+JRnGoZCnABv7mRL55+VsRWWYnlTDkz9RvKedMTD+rrXxxyEqgdhaFCOYF+lR9GM8C08WPb3Xz5AJmBsYcKcmaBbTrudvJ8GGe40NzybEGQfFmhNEtVqy4TzzUKlR6K0KRD4OUeLSEc+uFdoacrAltiisKzF4Y0XFt9Uk4s1gdADBXFTCOeyMg9VeDZS/cqJsQVL/lQFzi9QtrBPubFXqXNVLsP6Pd1dWHvi6p22cD3dDCL3SCSsKQGsk/zIlG+78u8SrZmGAJYEu94hZ/S4/vnMVxbC3qjliIVxUUOZtdv3fskZPyBqAT6S1HOEsqZQp0PxL1JfcjxmV2/pwggYGatmzk346PL1R9IqN8jU1LwdmfF5ztvBGI5mylY1i2WKaK1HOIbAI0ZC1AUxz+FtqGeQ4pYUwkLtTTRF0+QjFxMeFHH7o8d7OGxVXbHuFbe8qztcgPjerlahf8dt1azrHviAVMbh8pB8HXBScx4w9I/XNr/B6sjg37xHAAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796306</v>
+        <v>-0.3785388757796309</v>
       </c>
     </row>
     <row r="21">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Consolidated Government Revenue: ytd</Name>
-          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
-          <SeriesId>310918701</SeriesId>
-          <Code>SR4824980</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6CC4E1C-C672-4787-BD28-D165D1FAA360}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>